--- a/docs/均晟公司耗材二维码表格例表.xlsx
+++ b/docs/均晟公司耗材二维码表格例表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="耗材二维码表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>耗材二维码表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,28 +651,31 @@
   <si>
     <t>二维码数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效日期</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.E+00"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
+    <numFmt numFmtId="165" formatCode="0.E+00"/>
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -741,20 +744,14 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -764,21 +761,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1067,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,2339 +1068,2351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="26.125" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="E1" s="7" t="str">
-        <f t="shared" ref="E1:F65" si="0">C1&amp;D1</f>
+      <c r="B1" s="11"/>
+      <c r="E1" s="5" t="str">
+        <f t="shared" ref="E1:E7" si="0">C1&amp;D1</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>20190121</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="5" t="str">
+        <f t="shared" ref="E3" si="1">C3&amp;D3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20210121</v>
+      </c>
+      <c r="E4" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="1">
         <v>20190101</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>200</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>207</v>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>200</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
         <v>13</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
         <v>22</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
         <v>23</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
         <v>24</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
         <v>25</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
         <v>26</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
         <v>27</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
         <v>28</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
         <v>29</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
         <v>30</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
         <v>31</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
         <v>32</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
         <v>33</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
         <v>34</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
         <v>35</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
         <v>36</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
         <v>37</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
         <v>38</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
         <v>39</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
         <v>40</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
         <v>41</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
         <v>42</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
         <v>43</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
         <v>44</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
         <v>45</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
         <v>46</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
         <v>47</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
         <v>48</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
         <v>49</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
         <v>50</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
         <v>51</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
         <v>52</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
         <v>53</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
         <v>54</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
         <v>55</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
         <v>56</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="C63" s="2"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
         <v>57</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="C64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
         <v>58</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
         <v>59</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
         <v>60</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
         <v>61</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="C68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
         <v>62</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="C69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
         <v>63</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="C70" s="2"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
         <v>64</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
         <v>65</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+      <c r="C72" s="2"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
         <v>66</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+      <c r="C73" s="2"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
         <v>67</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
         <v>68</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+      <c r="C75" s="2"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
         <v>69</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+      <c r="C76" s="2"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
         <v>70</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="C77" s="2"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
         <v>71</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="C78" s="2"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
         <v>72</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
         <v>73</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+      <c r="C80" s="2"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
         <v>74</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+      <c r="C81" s="2"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
         <v>75</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="C82" s="2"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
         <v>76</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+      <c r="C83" s="2"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
         <v>77</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+      <c r="C84" s="2"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
         <v>78</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="7"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+      <c r="C85" s="2"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
         <v>79</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+      <c r="C86" s="2"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
         <v>80</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B87" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+      <c r="C87" s="2"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
         <v>81</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+      <c r="C88" s="2"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
         <v>82</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+      <c r="C89" s="2"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
         <v>83</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+      <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
         <v>84</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+      <c r="C91" s="2"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
         <v>85</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="7"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+      <c r="C92" s="2"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
         <v>86</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="7"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+      <c r="C93" s="2"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
         <v>87</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B94" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="7"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+      <c r="C94" s="2"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
         <v>88</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="7"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+      <c r="C95" s="2"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
         <v>89</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="7"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+      <c r="C96" s="2"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
         <v>90</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B97" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+      <c r="C97" s="2"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
         <v>91</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B98" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="7"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+      <c r="C98" s="2"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
         <v>92</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B99" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="7"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+      <c r="C99" s="2"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
         <v>93</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="7"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
+      <c r="C100" s="2"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
         <v>94</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B101" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="7"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
+      <c r="C101" s="2"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
         <v>95</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="7"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+      <c r="C102" s="2"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
         <v>96</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B103" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="7"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+      <c r="C103" s="2"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
         <v>97</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="7"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+      <c r="C104" s="2"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
         <v>98</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="7"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+      <c r="C105" s="2"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
         <v>99</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+      <c r="C106" s="2"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
         <v>100</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="7"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+      <c r="C107" s="2"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
         <v>101</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B108" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="7"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+      <c r="C108" s="2"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
         <v>102</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B109" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="7"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+      <c r="C109" s="2"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
         <v>103</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B110" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="7"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+      <c r="C110" s="2"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
         <v>104</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B111" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="7"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
+      <c r="C111" s="2"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
         <v>105</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B112" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="7"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
+      <c r="C112" s="2"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
         <v>106</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B113" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="7"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
+      <c r="C113" s="2"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
         <v>107</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B114" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="7"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
+      <c r="C114" s="2"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
         <v>108</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B115" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="7"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+      <c r="C115" s="2"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
         <v>109</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B116" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="7"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+      <c r="C116" s="2"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
         <v>110</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B117" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="7"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
+      <c r="C117" s="2"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
         <v>111</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B118" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="7"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
+      <c r="C118" s="2"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
         <v>112</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B119" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="7"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+      <c r="C119" s="2"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
         <v>113</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B120" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="7"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
+      <c r="C120" s="2"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
         <v>114</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B121" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="7"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
+      <c r="C121" s="2"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
         <v>115</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B122" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="4"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="7"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
+      <c r="C122" s="2"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
         <v>116</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B123" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="7"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
+      <c r="C123" s="2"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
         <v>117</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B124" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="7"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
+      <c r="C124" s="2"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
         <v>118</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B125" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="7"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
+      <c r="C125" s="2"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
         <v>119</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B126" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="7"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
+      <c r="C126" s="2"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
         <v>120</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B127" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="7"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
+      <c r="C127" s="2"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
         <v>121</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B128" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C127" s="4"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="7"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
+      <c r="C128" s="2"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
         <v>122</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B129" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C128" s="4"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="7"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
+      <c r="C129" s="2"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
         <v>123</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B130" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="7"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
+      <c r="C130" s="2"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
         <v>124</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B131" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="7"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
+      <c r="C131" s="2"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
         <v>125</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B132" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="7"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
+      <c r="C132" s="2"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
         <v>126</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B133" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="7"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
+      <c r="C133" s="2"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
         <v>127</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B134" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C133" s="4"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="7"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
+      <c r="C134" s="2"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
         <v>128</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B135" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="7"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
+      <c r="C135" s="2"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
         <v>129</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B136" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="4"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="7"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
+      <c r="C136" s="2"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
         <v>130</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B137" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C136" s="4"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="7"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
+      <c r="C137" s="2"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
         <v>131</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B138" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C137" s="4"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="7"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
+      <c r="C138" s="2"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
         <v>132</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B139" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="7"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
+      <c r="C139" s="2"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
         <v>133</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B140" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="7"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
+      <c r="C140" s="2"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
         <v>134</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B141" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="7"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
+      <c r="C141" s="2"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="5"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
         <v>135</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B142" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="7"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
+      <c r="C142" s="2"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
         <v>136</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B143" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="4"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="7"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
+      <c r="C143" s="2"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
         <v>137</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B144" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="7"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
+      <c r="C144" s="2"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
         <v>138</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B145" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C144" s="4"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="7"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
+      <c r="C145" s="2"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
         <v>139</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B146" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="7"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
+      <c r="C146" s="2"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
         <v>140</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B147" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="7"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="3">
+      <c r="C147" s="2"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
         <v>141</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B148" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="7"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
+      <c r="C148" s="2"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="5"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
         <v>142</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B149" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="4"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="7"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="3">
+      <c r="C149" s="2"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
         <v>143</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B150" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="7"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
+      <c r="C150" s="2"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
         <v>144</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B151" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="7"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="3">
+      <c r="C151" s="2"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="5"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
         <v>145</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B152" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="7"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="3">
+      <c r="C152" s="2"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
         <v>146</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B153" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="7"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="3">
+      <c r="C153" s="2"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
         <v>147</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B154" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="7"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="3">
+      <c r="C154" s="2"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="5"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
         <v>148</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B155" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="7"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
+      <c r="C155" s="2"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
         <v>149</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B156" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="7"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
+      <c r="C156" s="2"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="5"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
         <v>150</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B157" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="7"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
+      <c r="C157" s="2"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="5"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
         <v>151</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B158" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="7"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="3">
+      <c r="C158" s="2"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="5"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
         <v>152</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B159" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="7"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="3">
+      <c r="C159" s="2"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="5"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
         <v>153</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B160" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="7"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="3">
+      <c r="C160" s="2"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
         <v>154</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B161" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="7"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="3">
+      <c r="C161" s="2"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="5"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
         <v>155</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B162" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="7"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="3">
+      <c r="C162" s="2"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
         <v>156</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B163" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="7"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="3">
+      <c r="C163" s="2"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
         <v>157</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B164" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="7"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="3">
+      <c r="C164" s="2"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="5"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
         <v>158</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B165" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="7"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="3">
+      <c r="C165" s="2"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
         <v>159</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B166" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="7"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="3">
+      <c r="C166" s="2"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="5"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
         <v>160</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B167" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="7"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="3">
+      <c r="C167" s="2"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="5"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
         <v>161</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B168" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C167" s="4"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="7"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="3">
+      <c r="C168" s="2"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="5"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
         <v>162</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B169" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C168" s="4"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="7"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="3">
+      <c r="C169" s="2"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="5"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
         <v>163</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B170" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C169" s="4"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="7"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="3">
+      <c r="C170" s="2"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="5"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
         <v>164</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B171" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C170" s="4"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="7"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="3">
+      <c r="C171" s="2"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="5"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
         <v>165</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B172" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C171" s="4"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="7"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="3">
+      <c r="C172" s="2"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="5"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
         <v>166</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B173" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C172" s="4"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="7"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="3">
+      <c r="C173" s="2"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="5"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
         <v>167</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B174" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C173" s="4"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="7"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="3">
+      <c r="C174" s="2"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="5"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
         <v>168</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B175" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C174" s="4"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="7"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="3">
+      <c r="C175" s="2"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="5"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
         <v>169</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B176" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C175" s="4"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="7"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="3">
+      <c r="C176" s="2"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="5"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
         <v>170</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B177" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C176" s="4"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="7"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="3">
+      <c r="C177" s="2"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
         <v>171</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B178" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C177" s="4"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="7"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="3">
+      <c r="C178" s="2"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="5"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
         <v>172</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B179" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C178" s="4"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="7"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="3">
+      <c r="C179" s="2"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="5"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
         <v>173</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B180" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C179" s="4"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="7"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="3">
+      <c r="C180" s="2"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="5"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
         <v>174</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B181" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C180" s="4"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="7"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="3">
+      <c r="C181" s="2"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="5"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
         <v>175</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B182" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C181" s="4"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="7"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="3">
+      <c r="C182" s="2"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="5"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
         <v>176</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B183" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="7"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="3">
+      <c r="C183" s="2"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="5"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
         <v>177</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B184" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C183" s="4"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="7"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="3">
+      <c r="C184" s="2"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="5"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
         <v>178</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B185" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C184" s="4"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="7"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="3">
+      <c r="C185" s="2"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="5"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
         <v>179</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B186" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C185" s="4"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="7"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="3">
+      <c r="C186" s="2"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="5"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
         <v>180</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B187" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C186" s="4"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="7"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="3">
+      <c r="C187" s="2"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="5"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
         <v>181</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B188" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C187" s="4"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="7"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="3">
+      <c r="C188" s="2"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="5"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
         <v>182</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B189" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C188" s="4"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="7"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="3">
+      <c r="C189" s="2"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="5"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
         <v>183</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B190" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C189" s="4"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="7"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="3">
+      <c r="C190" s="2"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="5"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
         <v>184</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B191" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C190" s="4"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="7"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="3">
+      <c r="C191" s="2"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="5"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
         <v>185</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B192" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C191" s="4"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="7"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="3">
+      <c r="C192" s="2"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
         <v>186</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B193" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C192" s="4"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="7"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="3">
+      <c r="C193" s="2"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
         <v>187</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B194" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C193" s="4"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="7"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="3">
+      <c r="C194" s="2"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="5"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
         <v>188</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B195" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="7"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="3">
+      <c r="C195" s="2"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="5"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
         <v>189</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B196" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C195" s="4"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="7"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="3">
+      <c r="C196" s="2"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1">
         <v>190</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B197" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C196" s="4"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="7"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="3">
+      <c r="C197" s="2"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1">
         <v>191</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B198" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C197" s="4"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="7"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="3">
+      <c r="C198" s="2"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
         <v>192</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B199" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C198" s="4"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="7"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="3">
+      <c r="C199" s="2"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="5"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
         <v>193</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B200" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C199" s="4"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="7"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="3">
+      <c r="C200" s="2"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="5"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
         <v>194</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B201" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="7"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="3">
+      <c r="C201" s="2"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="5"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
         <v>195</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B202" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="7"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="3">
+      <c r="C202" s="2"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="5"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
         <v>196</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B203" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="7"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="3">
+      <c r="C203" s="2"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="5"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
         <v>197</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B204" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="7"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="3">
+      <c r="C204" s="2"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="5"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
         <v>198</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B205" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="7"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="3">
+      <c r="C205" s="2"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="5"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1">
         <v>199</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B206" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C205" s="4"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="7"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="3">
+      <c r="C206" s="2"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="5"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
         <v>200</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B207" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C206" s="4"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="7"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B207" s="11"/>
-      <c r="D207" s="5"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B208" s="11"/>
-      <c r="D208" s="5"/>
-    </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D210" s="5"/>
-    </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D211" s="5"/>
-    </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D212" s="5"/>
-    </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D213" s="5"/>
-    </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D214" s="5"/>
-    </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E215" t="str">
-        <f t="shared" ref="E194:E216" si="1">C215&amp;D215</f>
+      <c r="C207" s="2"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="5"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="B208" s="9"/>
+      <c r="D208" s="3"/>
+    </row>
+    <row r="209" spans="2:5">
+      <c r="B209" s="9"/>
+      <c r="D209" s="3"/>
+    </row>
+    <row r="210" spans="2:5">
+      <c r="D210" s="3"/>
+    </row>
+    <row r="211" spans="2:5">
+      <c r="D211" s="3"/>
+    </row>
+    <row r="212" spans="2:5">
+      <c r="D212" s="3"/>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="D213" s="3"/>
+    </row>
+    <row r="214" spans="2:5">
+      <c r="D214" s="3"/>
+    </row>
+    <row r="215" spans="2:5">
+      <c r="D215" s="3"/>
+    </row>
+    <row r="216" spans="2:5">
+      <c r="E216" t="str">
+        <f t="shared" ref="E216:E217" si="2">C216&amp;D216</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E216" t="str">
-        <f t="shared" si="1"/>
+    <row r="217" spans="2:5">
+      <c r="E217" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -3416,11 +3421,11 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B12:B16">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="YZ1A211901010000001">
-      <formula>NOT(ISERROR(SEARCH("YZ1A211901010000001",B12)))</formula>
+  <conditionalFormatting sqref="B13:B17">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="YZ1A211901010000001">
+      <formula>NOT(ISERROR(SEARCH("YZ1A211901010000001",B13)))</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
